--- a/target/test-classes/LoginData.xlsx
+++ b/target/test-classes/LoginData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Training\PeopleNTech\BITM Online 7\TestAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37244FDA-4393-42AE-962F-A8012574EDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BAB39B-6235-40FD-BBE4-6C9ADE12D3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
   <si>
     <t>Email</t>
   </si>
@@ -51,13 +51,14 @@
     <t>Result</t>
   </si>
   <si>
-    <t>user101@gmail.com</t>
+    <t>Not Login</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -383,13 +384,13 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.6328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -410,6 +411,9 @@
       <c r="B2">
         <v>123456</v>
       </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -418,6 +422,9 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -426,13 +433,14 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="1"/>
+      <c r="C5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5">
-        <v>123456</v>
       </c>
     </row>
   </sheetData>
@@ -441,7 +449,6 @@
     <hyperlink ref="A3:A4" r:id="rId2" display="email@test.com" xr:uid="{7BFDBE26-B0E0-4128-A41A-720C646A8F49}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{B0ABAFAA-FD87-4F0E-A109-090614988C8B}"/>
     <hyperlink ref="A4" r:id="rId4" xr:uid="{4AAE4C0D-6EFD-4B49-9D21-6F194ABF6379}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{239AAF1D-B9A4-4FBF-BC3C-77ED25F4F3A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/test-classes/LoginData.xlsx
+++ b/target/test-classes/LoginData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="9">
   <si>
     <t>Email</t>
   </si>
